--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,6 +33,69 @@
   </si>
   <si>
     <t>- login 페이지에서 입력한 정보 &gt; main</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- login 페이지에서 유효성 검사 &gt; ajax로 main에 전달 (?)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(현재)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- login &gt; loginOK &gt; main 으로 데이터 받아서 출력되고 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(문제점)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> "Add a Schedule" 진행하면 받아온 데이터가 사라짐</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(변경)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- "Add a Schedule" 데이터를 ajax로 보내기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- main.jsp에서 modal 창 입력 데이터를 js로 처리 (여기에서 ajax도 구현)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 그럼 insert는 어디서? main?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -40,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +140,16 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -104,12 +181,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -414,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -426,28 +507,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,12 +98,29 @@
     <t xml:space="preserve"> 그럼 insert는 어디서? main?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>http://localhost:8088/common/schedule/scheduleadd.do</t>
+  </si>
+  <si>
+    <t>스케줄 추가 완료 컨트롤러 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WARN : org.springframework.web.servlet.PageNotFound - No mapping found for HTTP request with URI [/common/*/schedule/scheduleadd.do] in DispatcherServlet with name 'appServlet'</t>
+  </si>
+  <si>
+    <t>WARN : org.springframework.web.servlet.PageNotFound - No mapping found for HTTP request with URI [/common/schedule/scheduleadd.do] in DispatcherServlet with name 'appServlet'</t>
+  </si>
+  <si>
+    <t>&lt;mvc:annotation-driven /&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +165,13 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -181,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -191,6 +215,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -495,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,6 +606,31 @@
         <v>14</v>
       </c>
     </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -112,7 +112,165 @@
     <t>WARN : org.springframework.web.servlet.PageNotFound - No mapping found for HTTP request with URI [/common/schedule/scheduleadd.do] in DispatcherServlet with name 'appServlet'</t>
   </si>
   <si>
-    <t>&lt;mvc:annotation-driven /&gt;</t>
+    <t>(2) modal창 입력 후 확인 및 닫기 버튼 누르면 내용 다시 비우기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- (jsp) 게시물 개수 변수 sche_cnt , (con) 게시물 개수 변수 list_cnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; 멤버 seq 가지고 todo, doing, done 게시물 개수 모두 가져와서 각각 표기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) 진행단계에 따라 숫자 변경 (O) , </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시물 보여지는 위치 변경</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (X)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*일정(완료)*/</t>
+  </si>
+  <si>
+    <t>CREATE TABLE TBL_SCHEDULE (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SEQ NUMBER PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /*번호*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  MEMBER_SEQ NUMBER NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CONSTRAINT FK_MEMBER FOREIGN KEY (MEMBER_SEQ) REFERENCES TBL_MEMBER(SEQ) ON DELETE CASCADE,</t>
+  </si>
+  <si>
+    <t>/*회원번호*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TITLE VARCHAR2(200) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /*제목*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CONTENT VARCHAR2(2000) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /*내용*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  START_TIME VARCHAR2(20) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /*시작날짜*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  END_TIME VARCHAR2(20) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /*끝날짜*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IMPORTANT NUMBER NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /*중요도*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TAG VARCHAR2(100) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /*태그*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COST NUMBER NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                /*비용*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  STATE VARCHAR2(50) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /*상태*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  REGDATE VARCHAR2(50) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /*등록일*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DELFLAG NUMBER NOT NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                /*삭제*/</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>Programming Study</t>
+  </si>
+  <si>
+    <t>Java, Oracle, JavaScript Study</t>
+  </si>
+  <si>
+    <t>2021.06.22</t>
+  </si>
+  <si>
+    <t>2021.09.26</t>
+  </si>
+  <si>
+    <t>study,coding</t>
+  </si>
+  <si>
+    <t>doing</t>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASE WHEN START_TIME &gt; SYSDATE THEN TODO,
+        WHEN START_TIME &lt; SYSDATE AND END_TIME &gt; SYSDATE THEN DOING
+        WHEN END_TIME &lt; SYSDATE THEN DONE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; select 할때 case문으로 가져옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; 게시물 리스트는 멤버 seq로 모두 가져옴 (특정지을 수 있는 컬럼으로 구분해보자 &gt; state 컬럼 (성공))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -167,10 +325,13 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -205,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -215,7 +376,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -520,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,18 +778,208 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G59" s="1">
+        <v>4</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K59" s="7">
+        <v>44385</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
         <v>19</v>
       </c>
     </row>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -271,6 +271,14 @@
   </si>
   <si>
     <t>-&gt; 게시물 리스트는 멤버 seq로 모두 가져옴 (특정지을 수 있는 컬럼으로 구분해보자 &gt; state 컬럼 (성공))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(10/19) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 기존에 등록되어 있던 &amp; 신규 등록한 일정 나타날 수 있게</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -685,7 +693,7 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -978,6 +986,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>19</v>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -278,7 +278,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>- 기존에 등록되어 있던 &amp; 신규 등록한 일정 나타날 수 있게</t>
+    <t>- 기존에 등록되어 있던 &amp; 신규 등록한 일정 나타날 수 있게 &gt; 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule.xml에서 scheduleAdd 쿼리,,,,,,,,,,,에 member_seq는 어디서 ㅠㅠ </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +697,7 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -996,6 +1000,11 @@
         <v>62</v>
       </c>
     </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>19</v>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -285,12 +285,55 @@
     <t xml:space="preserve">schedule.xml에서 scheduleAdd 쿼리,,,,,,,,,,,에 member_seq는 어디서 ㅠㅠ </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>(10/22)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 스케줄 추가했을 때 DB에 insert 작업 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into TBL_SCHEDULE (seq, member_seq,title, content, start_time, end_time, important, tag, cost, state, regdate, delflag) </t>
+  </si>
+  <si>
+    <t>values (seq_schedule.nextVal,)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; member_seq : main_controller에 있음  (session.getAttribute("seq"))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; content, start_time, end_time, important, tag, state,  : addController </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; cost, regdate, delflag : default 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 디폴트 값 제약조건 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter table TBL_SCHEDULE modify cost NUMBER default 0;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter table TBL_SCHEDULE modify regdate VARCHAR2(50) default sysdate;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; commit 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +388,13 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -378,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -390,6 +440,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -694,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1005,8 +1056,63 @@
         <v>63</v>
       </c>
     </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>19</v>
       </c>
     </row>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -326,6 +326,22 @@
   </si>
   <si>
     <t>&gt; commit 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 날짜비교 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 오늘 날짜는 형식 맞추기 (O)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; start, end 날짜 형식 변경 필요 ("." 없애기)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 최종 두개 날짜 비교해서 state 리턴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +764,7 @@
   <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1111,6 +1127,26 @@
         <v>74</v>
       </c>
     </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>19</v>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -344,12 +344,102 @@
     <t>&gt; 최종 두개 날짜 비교해서 state 리턴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>(*) mybaitsinsert문은 resultType이 필요없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javasciprt Study</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{enddate=20211106, cost=0, regdate=2021.10.23, tag=Javasciprt, state=doing, title=Javasciprt Study, startdate=20211022, priority=4, delflag=0, member_seq=1, content=Javasciprt Study &amp; Programmers Question}</t>
+  </si>
+  <si>
+    <t>{enddate=20211106, cost=0, regdate=2021.10.23, tag=Javasciprt, state=doing, title=Javasciprt Study, startdate=20211022, priority=3, delflag=0, member_seq=1, content=Javasciprt Study &amp; Programmers Question}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into TBL_SCHEDULE (seq, member_seq,title, content, start_time, end_time, important, tag, cost, state, regdate, delflag) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(seq,,) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>,jdbcType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4BE6FA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=VARCHAR</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;setting name="cacheEnabled" value="false" /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/settings&gt;</t>
+  </si>
+  <si>
+    <t>출처: https://rebellion21.tistory.com/36 [잡동사니]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;settings&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;setting name="jdbcTypeForNull" value="NULL" /&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ORA-01400: cannot insert NULL into ("TOY"."TBL_SCHEDULE"."MEMBER_SEQ")</t>
+  </si>
+  <si>
+    <r>
+      <t>ORA-01400 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>NULL을 ("DB명"."테이블명"."칼럼") 삽입할 수 없습니다</t>
+    </r>
+  </si>
+  <si>
+    <t>{enddate=, cost=0, regdate= tag=, state=doing, title=, startdate=, priority=3, delflag=0, member_seq=1, content=}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>values (seq_schedule.nextVal,1,"Javasciprt Study","Javasciprt Study &amp; Programmers Question","20211022","20211106",4,"Javasciprt",0,"doing","2021.10.23",0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_seq 왜 null이지?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javasciprt Study, Programmers Question</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +501,30 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF0F0F0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4BE6FA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF808080"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -444,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -457,6 +571,9 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -472,6 +589,163 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>89120</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>85560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3693584" y="15134167"/>
+          <a:ext cx="6714286" cy="1323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>440106</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>1468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3640667" y="16668749"/>
+          <a:ext cx="6430272" cy="2943636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>601887</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>59325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1375833" y="20690417"/>
+          <a:ext cx="12984387" cy="419158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>137584</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165006</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>117925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1513417" y="21357166"/>
+          <a:ext cx="6906589" cy="3229426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -761,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1084,7 +1358,7 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
@@ -1127,34 +1401,293 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="H82" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="H83" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D152" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A162" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A163" s="12"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="12"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="12"/>
+      <c r="O163" s="12"/>
+    </row>
+    <row r="164" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A164" s="12"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="12"/>
+      <c r="O164" s="12"/>
+    </row>
+    <row r="165" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A165" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
+      <c r="O165" s="12"/>
+    </row>
+    <row r="166" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A166" s="12"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12"/>
+      <c r="O166" s="12"/>
+    </row>
+    <row r="167" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A167" s="12"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+      <c r="J167" s="12"/>
+      <c r="K167" s="12"/>
+      <c r="L167" s="12"/>
+      <c r="M167" s="12"/>
+      <c r="N167" s="12"/>
+      <c r="O167" s="12"/>
+    </row>
+    <row r="168" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A168" s="12"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="12"/>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
+      <c r="O168" s="12"/>
+    </row>
+    <row r="169" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+      <c r="O169" s="12"/>
+    </row>
+    <row r="170" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="12"/>
+      <c r="N170" s="12"/>
+      <c r="O170" s="12"/>
+    </row>
+    <row r="171" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
+      <c r="O171" s="12"/>
+    </row>
+    <row r="172" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
+      <c r="O172" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -432,6 +432,14 @@
   </si>
   <si>
     <t>Javasciprt Study, Programmers Question</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10/31]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- modal 창 닫거나 완료 했을 때 내용 지우기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -574,6 +582,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1037,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1583,7 +1592,9 @@
       <c r="O166" s="12"/>
     </row>
     <row r="167" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A167" s="12"/>
+      <c r="A167" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
       <c r="D167" s="12"/>
@@ -1600,7 +1611,9 @@
       <c r="O167" s="12"/>
     </row>
     <row r="168" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A168" s="12"/>
+      <c r="A168" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
       <c r="D168" s="12"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -439,7 +439,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>- modal 창 닫거나 완료 했을 때 내용 지우기</t>
+    <t>- modal 창 닫거나 완료 했을 때 내용 지우기 &gt; 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11/1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 필터 front 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11/3]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 시작,끝 날짜 "." 넣기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 필터 기능 입히기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1044,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O172"/>
+  <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F169" sqref="F169"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1664,7 +1684,9 @@
       <c r="O170" s="12"/>
     </row>
     <row r="171" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A171" s="12"/>
+      <c r="A171" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
       <c r="D171" s="12"/>
@@ -1681,7 +1703,9 @@
       <c r="O171" s="12"/>
     </row>
     <row r="172" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A172" s="12"/>
+      <c r="A172" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
@@ -1697,6 +1721,21 @@
       <c r="N172" s="12"/>
       <c r="O172" s="12"/>
     </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -460,6 +460,14 @@
   </si>
   <si>
     <t>- 필터 기능 입히기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 기존 데이터 update (DB select 정상완료)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 신규 데이터도 "." 있는걸로 insert 되게 &gt; 완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1064,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O176"/>
+  <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1733,6 +1741,16 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
         <v>104</v>
       </c>
     </row>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -468,6 +468,26 @@
   </si>
   <si>
     <t>&gt; 신규 데이터도 "." 있는걸로 insert 되게 &gt; 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a. 검색어 가져오기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- form 태그 X , ajax로 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- select 할때 필요한 정보는?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- tag가 제대로 나오지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 첫번째 레코드의 tag 값으로만 찍힘</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -782,6 +802,158 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>532896</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>53050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687917" y="33803167"/>
+          <a:ext cx="3972479" cy="952633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>204573</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>69924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="34798002"/>
+          <a:ext cx="2257740" cy="514422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>492770</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>32913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687917" y="35602333"/>
+          <a:ext cx="4620270" cy="752580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>553615</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609665</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>162439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="553615" y="36501917"/>
+          <a:ext cx="6247300" cy="2861189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1072,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O179"/>
+  <dimension ref="A1:O185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I185" sqref="I185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1754,6 +1926,31 @@
         <v>104</v>
       </c>
     </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -488,6 +488,18 @@
   </si>
   <si>
     <t>- 첫번째 레코드의 tag 값으로만 찍힘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">main 에서 ajax로 filter controller로 보냄… </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 쿼리는 scheduleList 를 그대로 사용해야함. (main controller에서 데이터 전달해서 select)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 로그인 id,pw만 알면 됨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1244,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O185"/>
+  <dimension ref="A1:O223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I185" sqref="I185"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1951,6 +1963,21 @@
         <v>111</v>
       </c>
     </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B223" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -500,6 +500,10 @@
   </si>
   <si>
     <t>- 로그인 id,pw만 알면 됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1256,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O223"/>
+  <dimension ref="A1:O225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A201" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+      <selection activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1978,6 +1982,11 @@
         <v>114</v>
       </c>
     </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -504,6 +504,10 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11/8]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1260,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O225"/>
+  <dimension ref="A1:O226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A201" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A225" sqref="A225"/>
+      <selection activeCell="A226" sqref="A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1987,6 +1991,11 @@
         <v>115</v>
       </c>
     </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -507,7 +507,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[11/8]</t>
+    <t xml:space="preserve">[11/8] </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -507,7 +507,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">[11/8] </t>
+    <t xml:space="preserve">[11/10] </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- main.jsp 에서 ajax로 필터 검색 값 Filter.Controller로 보내주면,, select</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; main.controller에서 user id,pw를 jsp로 전달 해줘야 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; hidden 태그로 데이터 숨기고 js로 값 가져오기!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶ hashmap foreach로 돌릴 때는 ###.value로 작성하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +531,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +617,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -634,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -651,6 +675,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1264,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O226"/>
+  <dimension ref="A1:O230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1986,14 +2011,34 @@
         <v>114</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B228" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B229" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -524,6 +524,10 @@
   </si>
   <si>
     <t>▶ hashmap foreach로 돌릴 때는 ###.value로 작성하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(*) 오늘 작업 진행도 : main에서 filter controller 에 데이터 전달 성공</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1289,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O230"/>
+  <dimension ref="A1:O232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A230" sqref="A230"/>
+      <selection activeCell="A232" sqref="A232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2041,6 +2045,11 @@
         <v>120</v>
       </c>
     </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -528,6 +528,10 @@
   </si>
   <si>
     <t>(*) 오늘 작업 진행도 : main에서 filter controller 에 데이터 전달 성공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11/11]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1293,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O232"/>
+  <dimension ref="A1:O234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A232" sqref="A232"/>
+      <selection activeCell="A234" sqref="A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2050,6 +2054,11 @@
         <v>121</v>
       </c>
     </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -531,7 +531,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[11/11]</t>
+    <t>[11/12]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -531,7 +531,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[11/12]</t>
+    <t>[11/13]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -531,7 +531,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[11/13]</t>
+    <t>[11/14]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -550,6 +550,10 @@
   </si>
   <si>
     <t>&gt; ajax에서 데이터를 못받아서?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1315,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O240"/>
+  <dimension ref="A1:O242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A240" sqref="A240"/>
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2102,6 +2106,11 @@
         <v>127</v>
       </c>
     </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B242" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -531,7 +531,25 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[11/14]</t>
+    <t>[11/15]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- select 해서 결과 출력하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mybaits에서 like절 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title like '%' ||  #{keyword} || '%'</t>
+  </si>
+  <si>
+    <t>No converter found for return value of type:</t>
+  </si>
+  <si>
+    <t>&gt; ajax에서 데이터를 못받아서?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1297,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O234"/>
+  <dimension ref="A1:O240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A234" sqref="A234"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A240" sqref="A240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2059,6 +2077,31 @@
         <v>122</v>
       </c>
     </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -554,6 +554,17 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mystes1.blogspot.com/2016/12/web-jsp-ajax-db.html</t>
+  </si>
+  <si>
+    <t>ajax로 db</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11/19]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1319,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O242"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+      <selection activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2106,9 +2117,24 @@
         <v>127</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B242" s="1" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -565,6 +565,10 @@
   </si>
   <si>
     <t>[11/19]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11/20]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1330,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O245"/>
+  <dimension ref="A1:O247"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243"/>
+      <selection activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2137,6 +2141,11 @@
         <v>129</v>
       </c>
     </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -568,7 +568,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[11/20]</t>
+    <t>[11/21]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -568,7 +568,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[11/21]</t>
+    <t>[11/22]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -569,6 +569,18 @@
   </si>
   <si>
     <t>[11/22]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 검색할 때 모두 display none 진행.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 검색조건에 맞는 스케줄만 display 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1334,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O247"/>
+  <dimension ref="A1:O251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A247" sqref="A247"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2146,6 +2158,21 @@
         <v>132</v>
       </c>
     </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -581,6 +581,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1346,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O251"/>
+  <dimension ref="A1:O252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251"/>
+      <selection activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2173,6 +2177,11 @@
         <v>135</v>
       </c>
     </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -584,7 +584,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -584,7 +584,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t xml:space="preserve">       </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -585,6 +585,10 @@
   </si>
   <si>
     <t xml:space="preserve">       </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1350,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O252"/>
+  <dimension ref="A1:O253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A252" sqref="A252"/>
+      <selection activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2182,6 +2186,11 @@
         <v>136</v>
       </c>
     </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -588,7 +588,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:O253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A253" sqref="A253"/>
+      <selection activeCell="A254" sqref="A254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -581,10 +581,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1357,7 +1353,7 @@
   <dimension ref="A1:O253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A254" sqref="A254"/>
+      <selection activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2183,12 +2179,12 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -585,6 +585,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1353,7 +1357,7 @@
   <dimension ref="A1:O253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A252" sqref="A252"/>
+      <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2174,7 +2178,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -584,7 +584,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:O253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251"/>
+      <selection activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2178,17 +2178,17 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -581,6 +581,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1354,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O253"/>
+  <dimension ref="A1:O255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A252" sqref="A252"/>
+      <selection activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2191,6 +2195,11 @@
         <v>135</v>
       </c>
     </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -581,10 +581,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1361,7 +1357,7 @@
   <dimension ref="A1:O255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A255" sqref="A255"/>
+      <selection activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2187,7 +2183,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -2197,7 +2193,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -589,6 +589,10 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1357,7 +1361,7 @@
   <dimension ref="A1:O255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A252" sqref="A252"/>
+      <selection activeCell="A254" sqref="A254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2191,6 +2195,11 @@
         <v>135</v>
       </c>
     </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>137</v>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -581,10 +581,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1361,7 +1357,7 @@
   <dimension ref="A1:O255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A254" sqref="A254"/>
+      <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2182,7 +2178,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -2197,12 +2193,12 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:O255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251"/>
+      <selection activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -580,15 +580,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:O255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A252" sqref="A252"/>
+      <selection activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2188,17 +2188,17 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="139">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -585,6 +585,10 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1354,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O255"/>
+  <dimension ref="A1:O256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A253" sqref="A253"/>
+      <selection activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2201,6 +2205,11 @@
         <v>135</v>
       </c>
     </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -585,6 +585,10 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1358,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O256"/>
+  <dimension ref="A1:O259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A256" sqref="A256"/>
+      <selection activeCell="A259" sqref="A259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2210,6 +2214,11 @@
         <v>138</v>
       </c>
     </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="139">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -581,10 +581,6 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1365,7 +1361,7 @@
   <dimension ref="A1:O259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A259" sqref="A259"/>
+      <selection activeCell="A254" sqref="A254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2196,12 +2192,12 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -2211,12 +2207,12 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:O259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A254" sqref="A254"/>
+      <selection activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -2202,17 +2202,17 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="144">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -580,19 +580,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
+    <t>[12/13]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 검색조건에 맞는 스케줄 제외하고 숨기기 작업 진행해야 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>▷숨기기 진행하려는 스케줄 찾아야 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 어떻게 찾지???</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) 모르겠는데</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b) 몰ㄹ…라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_text::::</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java, Oracle, JavaScript StudyJavasciprt Study, Programmers QuestionToy Project in Progress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jstl 에서 아이디 동적으로 주고 싶을 떄</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +620,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,6 +714,12 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -727,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -745,6 +771,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1068,6 +1097,49 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>10026</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>80210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>408983</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>78582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10026" y="48226578"/>
+          <a:ext cx="6535062" cy="2705478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1358,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O259"/>
+  <dimension ref="A1:O285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A255" sqref="A255"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E281" sqref="E281:E282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2186,34 +2258,56 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" s="1" t="s">
-        <v>128</v>
+      <c r="A252" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" s="1" t="s">
-        <v>135</v>
+      <c r="A253" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" s="1" t="s">
-        <v>128</v>
+      <c r="A254" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="14" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A256" s="2"/>
+      <c r="B256" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B257" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B284" s="15"/>
+    </row>
+    <row r="285" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C285" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -614,6 +614,17 @@
   <si>
     <t>jstl 에서 아이디 동적으로 주고 싶을 떄</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12/14]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Date 검색 완료하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Autowired</t>
   </si>
 </sst>
 </file>
@@ -1430,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O285"/>
+  <dimension ref="A1:O287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E281" sqref="E281:E282"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C294" sqref="C294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2303,11 +2314,27 @@
         <v>143</v>
       </c>
     </row>
-    <row r="284" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="B284" s="15"/>
     </row>
-    <row r="285" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="C285" s="15"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -626,12 +626,16 @@
   <si>
     <t>@Autowired</t>
   </si>
+  <si>
+    <t>- Bean을 자동으로 주입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,6 +735,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -764,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -785,6 +797,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1444,7 +1457,7 @@
   <dimension ref="A1:O287"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C294" sqref="C294"/>
+      <selection activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2329,12 +2342,14 @@
       <c r="C285" s="15"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="16" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="2"/>
+      <c r="A287" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -628,6 +628,10 @@
   </si>
   <si>
     <t>- Bean을 자동으로 주입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1454,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O287"/>
+  <dimension ref="A1:O290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A287" sqref="A287"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A290" sqref="A290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2351,6 +2355,11 @@
         <v>147</v>
       </c>
     </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -631,7 +631,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>[12/16]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 작업량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- DB select시 datesize 값 0 나오는거 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(*) mybatis 쿼리 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://addio3305.tistory.com/66</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 완료 (start, end 데이터 select 하는 부분 분리했음)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +659,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +767,15 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -780,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -802,6 +831,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1458,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O290"/>
+  <dimension ref="A1:O296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A290" sqref="A290"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H289" sqref="H289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2356,8 +2386,33 @@
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290" s="1" t="s">
+      <c r="A290" s="2" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="17" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -652,6 +652,22 @@
   </si>
   <si>
     <t>&gt; 완료 (start, end 데이터 select 하는 부분 분리했음)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12/17]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax로 검색 결과만 출력하는 부분 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a. 검색결과에 해당하는 스케줄 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b. 찾은 스케줄 css 변경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1488,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O296"/>
+  <dimension ref="A1:O302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A275" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H289" sqref="H289"/>
+      <selection activeCell="E296" sqref="E296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2415,6 +2431,26 @@
         <v>152</v>
       </c>
     </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="159">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -668,6 +668,10 @@
   </si>
   <si>
     <t>b. 찾은 스케줄 css 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1504,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O302"/>
+  <dimension ref="A1:O304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A275" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E296" sqref="E296"/>
+      <selection activeCell="A304" sqref="A304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2451,6 +2455,11 @@
         <v>157</v>
       </c>
     </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -671,7 +671,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t xml:space="preserve">     </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="160">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -672,6 +672,10 @@
   </si>
   <si>
     <t xml:space="preserve">     </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12/20]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1508,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O304"/>
+  <dimension ref="A1:O305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A275" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A304" sqref="A304"/>
+      <selection activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2460,6 +2464,11 @@
         <v>158</v>
       </c>
     </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -676,6 +676,14 @@
   </si>
   <si>
     <t>[12/20]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 스케줄 추가시 박스 뒤틀림 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 스케줄 삭제 기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1512,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O305"/>
+  <dimension ref="A1:O307"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A275" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A306" sqref="A306"/>
+      <selection activeCell="A307" sqref="A307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2469,6 +2477,16 @@
         <v>159</v>
       </c>
     </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -686,12 +686,24 @@
     <t>- 스케줄 삭제 기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>[12/21]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 스케줄 삭제 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$(this).closest('ul').attr('id');</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,6 +820,12 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -841,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -864,6 +882,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1520,149 +1541,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O307"/>
+  <dimension ref="A1:O311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A307" sqref="A307"/>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E298" sqref="E298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -1670,12 +1691,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
@@ -1683,7 +1704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
@@ -1691,7 +1712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -1699,7 +1720,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
@@ -1707,7 +1728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
@@ -1715,7 +1736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>38</v>
       </c>
@@ -1723,7 +1744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
@@ -1731,7 +1752,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1739,7 +1760,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1747,12 +1768,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12">
       <c r="A52" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
@@ -1760,7 +1781,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1768,17 +1789,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="J58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -1816,82 +1837,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12">
       <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
         <v>76</v>
       </c>
@@ -1899,7 +1920,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
         <v>77</v>
       </c>
@@ -1907,97 +1928,97 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="15.75">
       <c r="D152" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15">
       <c r="A162" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" ht="16.5">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -2014,7 +2035,7 @@
       <c r="N163" s="12"/>
       <c r="O163" s="12"/>
     </row>
-    <row r="164" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" ht="16.5">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -2031,7 +2052,7 @@
       <c r="N164" s="12"/>
       <c r="O164" s="12"/>
     </row>
-    <row r="165" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" ht="16.5">
       <c r="A165" s="12" t="s">
         <v>96</v>
       </c>
@@ -2050,7 +2071,7 @@
       <c r="N165" s="12"/>
       <c r="O165" s="12"/>
     </row>
-    <row r="166" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="16.5">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -2067,7 +2088,7 @@
       <c r="N166" s="12"/>
       <c r="O166" s="12"/>
     </row>
-    <row r="167" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="16.5">
       <c r="A167" s="13" t="s">
         <v>98</v>
       </c>
@@ -2086,7 +2107,7 @@
       <c r="N167" s="12"/>
       <c r="O167" s="12"/>
     </row>
-    <row r="168" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" ht="16.5">
       <c r="A168" s="13" t="s">
         <v>99</v>
       </c>
@@ -2105,7 +2126,7 @@
       <c r="N168" s="12"/>
       <c r="O168" s="12"/>
     </row>
-    <row r="169" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" ht="16.5">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -2122,7 +2143,7 @@
       <c r="N169" s="12"/>
       <c r="O169" s="12"/>
     </row>
-    <row r="170" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="16.5">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -2139,7 +2160,7 @@
       <c r="N170" s="12"/>
       <c r="O170" s="12"/>
     </row>
-    <row r="171" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" ht="16.5">
       <c r="A171" s="13" t="s">
         <v>100</v>
       </c>
@@ -2158,7 +2179,7 @@
       <c r="N171" s="12"/>
       <c r="O171" s="12"/>
     </row>
-    <row r="172" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="16.5">
       <c r="A172" s="13" t="s">
         <v>101</v>
       </c>
@@ -2177,314 +2198,329 @@
       <c r="N172" s="12"/>
       <c r="O172" s="12"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15">
       <c r="A174" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15">
       <c r="A175" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15">
       <c r="A176" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1">
       <c r="A177" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1">
       <c r="A179" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1">
       <c r="A180" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1">
       <c r="A181" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1">
       <c r="A182" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1">
       <c r="A184" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1">
       <c r="A185" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="B223" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="B228" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="B229" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="B242" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2">
       <c r="A243" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2">
       <c r="A244" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2">
       <c r="A245" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2">
       <c r="A247" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2">
       <c r="A248" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2">
       <c r="A249" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2">
       <c r="A252" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2">
       <c r="A253" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2">
       <c r="A254" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2">
       <c r="A255" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2">
       <c r="A256" s="2"/>
       <c r="B256" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2">
       <c r="B257" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2">
       <c r="A260" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2">
       <c r="A261" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2">
       <c r="A265" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" ht="15">
       <c r="A284" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B284" s="15"/>
     </row>
-    <row r="285" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" ht="15">
       <c r="C285" s="15"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3">
       <c r="A286" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1">
       <c r="A290" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1">
       <c r="A291" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1">
       <c r="A292" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1">
       <c r="A293" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1">
       <c r="A295" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1">
       <c r="A296" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1">
       <c r="A299" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1">
       <c r="A300" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1">
       <c r="A301" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1">
       <c r="A302" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1">
       <c r="A304" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1">
       <c r="A305" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1">
       <c r="A306" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1">
       <c r="A307" s="2" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="18" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="166">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -696,6 +696,10 @@
   </si>
   <si>
     <t>$(this).closest('ul').attr('id');</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1541,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O311"/>
+  <dimension ref="A1:O315"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A281" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E298" sqref="E298"/>
+      <selection activeCell="C315" sqref="C315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2493,34 +2497,39 @@
         <v>158</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:3">
       <c r="A311" s="18" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="C315" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="168">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -700,6 +700,14 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12/23]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 삭제 버튼 클릭시 형제 태그 중 doing_title1을 찾아 값 가져오기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -863,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -889,6 +897,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -955,7 +964,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>440106</xdr:colOff>
+      <xdr:colOff>440107</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>1468</xdr:rowOff>
     </xdr:to>
@@ -1031,7 +1040,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>165006</xdr:colOff>
+      <xdr:colOff>165007</xdr:colOff>
       <xdr:row>136</xdr:row>
       <xdr:rowOff>117925</xdr:rowOff>
     </xdr:to>
@@ -1182,8 +1191,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609665</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28138</xdr:colOff>
       <xdr:row>216</xdr:row>
       <xdr:rowOff>162439</xdr:rowOff>
     </xdr:to>
@@ -1220,8 +1229,8 @@
       <xdr:rowOff>80210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>408983</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>509246</xdr:colOff>
       <xdr:row>280</xdr:row>
       <xdr:rowOff>78582</xdr:rowOff>
     </xdr:to>
@@ -1249,6 +1258,51 @@
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>17122</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>110289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>623576</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>66189</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17122" y="57300394"/>
+          <a:ext cx="6642296" cy="3023953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1547,13 +1601,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C315" sqref="C315"/>
+    <sheetView tabSelected="1" topLeftCell="A305" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A313" sqref="A313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="61.25" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2527,7 +2582,15 @@
         <v>164</v>
       </c>
     </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
     <row r="315" spans="1:3">
+      <c r="A315" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="C315" s="1" t="s">
         <v>165</v>
       </c>

--- a/00_기타/Project.xlsx
+++ b/00_기타/Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="169">
   <si>
     <t>[Project]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -708,6 +708,10 @@
   </si>
   <si>
     <t>- 삭제 버튼 클릭시 형제 태그 중 doing_title1을 찾아 값 가져오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 부모의 id 를 가져와서 형제태그를 선택하여 값 가져오기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1599,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O315"/>
+  <dimension ref="A1:O334"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A305" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A313" sqref="A313"/>
+      <selection activeCell="A334" sqref="A334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2595,6 +2599,11 @@
         <v>165</v>
       </c>
     </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
